--- a/problems.xlsx
+++ b/problems.xlsx
@@ -389,7 +389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -404,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,7 +1064,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -389,9 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -518,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="4">
   <si>
     <t>alg</t>
   </si>
@@ -387,9 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F97:F100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -628,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1190,8 +1192,11 @@
       <c r="D57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1202,10 +1207,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1216,10 +1224,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1230,10 +1241,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1244,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1261,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1272,10 +1286,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
